--- a/vk.xlsx
+++ b/vk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem_1/Desktop/python/First-suggest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4109EB2C-A21C-6745-83BF-2D0B19F94232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57161FBB-7CC6-9D48-B627-B3770C828F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="880" windowWidth="28240" windowHeight="17240" xr2:uid="{BD2727EE-4984-2C4A-8986-EA1EE3061C5E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Название</t>
   </si>
@@ -95,6 +95,16 @@
   </si>
   <si>
     <t>photo-33598391_457382619</t>
+  </si>
+  <si>
+    <t>- Футболка Carhartt WIP Relaxed Fit
+- Размеры: S; M; L
+- Артикул: TK3296-G
+- Новые, со всеми бирками, в упаковке. 
+- Цена: 3800₽</t>
+  </si>
+  <si>
+    <t>Carhartt WIP Relaxed Fit</t>
   </si>
 </sst>
 </file>
@@ -470,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B74344-39B2-D147-AD90-32FFECFB29A1}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,6 +541,32 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/vk.xlsx
+++ b/vk.xlsx
@@ -1,142 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem_1/Desktop/python/First-suggest/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57161FBB-7CC6-9D48-B627-B3770C828F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="880" windowWidth="28240" windowHeight="17240" xr2:uid="{BD2727EE-4984-2C4A-8986-EA1EE3061C5E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="goods" sheetId="2" r:id="rId1"/>
-    <sheet name="groups" sheetId="1" r:id="rId2"/>
+    <sheet name="goods" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="groups" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bh</t>
-  </si>
-  <si>
-    <t>SCR</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>xuinya1</t>
-  </si>
-  <si>
-    <t>xuinya2</t>
-  </si>
-  <si>
-    <t>Товар</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Картинка1</t>
-  </si>
-  <si>
-    <t>Картинка2</t>
-  </si>
-  <si>
-    <t>Картинка3</t>
-  </si>
-  <si>
-    <t>Картинка4</t>
-  </si>
-  <si>
-    <t>Картинка5</t>
-  </si>
-  <si>
-    <t>Картинка6</t>
-  </si>
-  <si>
-    <t>Nike Air Force</t>
-  </si>
-  <si>
-    <t>- Штаны Jordan 23 Engineered Khaki
-- Размеры: S; M; L
-- Артикул: DQ8066-385
-- Новые, со всеми бирками, в упаковке. 
-- Цена: 6000₽</t>
-  </si>
-  <si>
-    <t>photo-33598391_457382619</t>
-  </si>
-  <si>
-    <t>- Футболка Carhartt WIP Relaxed Fit
-- Размеры: S; M; L
-- Артикул: TK3296-G
-- Новые, со всеми бирками, в упаковке. 
-- Цена: 3800₽</t>
-  </si>
-  <si>
-    <t>Carhartt WIP Relaxed Fit</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
       <name val="Menlo"/>
       <family val="2"/>
+      <color rgb="FFCCCCCC"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -155,31 +61,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -479,163 +444,953 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B74344-39B2-D147-AD90-32FFECFB29A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col width="18.5" customWidth="1" min="1" max="1"/>
+    <col width="17.83203125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Товар</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Картинка1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Картинка2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Картинка3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Картинка4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Картинка5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Картинка6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="139.5" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Nike Air Force</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>- Штаны Jordan 23 Engineered Khaki
+- Размеры: S; M; L
+- Артикул: DQ8066-385
+- Новые, со всеми бирками, в упаковке. 
+- Цена: 6000₽</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="124" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Carhartt WIP Relaxed Fit</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>- Футболка Carhartt WIP Relaxed Fit
+- Размеры: S; M; L
+- Артикул: TK3296-G
+- Новые, со всеми бирками, в упаковке. 
+- Цена: 3800₽</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>photo-33598391_457382619</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324A4029-DE0C-D447-B46E-CD0FB9C7786E}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col width="30.83203125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="n">
+        <v>98557384</v>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>92504944</v>
+      </c>
+      <c r="C2" s="1" t="n"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>bh</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>135644682</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>135471942</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>86195472</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>86195472</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>130693663</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>130693663</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>xuinya1</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>135471942</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>135644682</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>xuinya2</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>92504944</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5755934</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>120508713</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>143146087</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>83390588</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>133439916</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>193532348</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>206390521</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>137681664</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>210717790</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62361518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>114491444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>156898602</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>190437175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>43574267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>187352967</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>208858494</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100432857</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>123405556</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>101661427</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>97100783</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>137503182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>104414442</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>217835243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29600968</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>161321852</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>99946674</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>183284717</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>89963652</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5180400</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63248094</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>192649649</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>181338733</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>122365263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>159551209</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>96881248</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>153199974</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>121717256</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112292510</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>98468366</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>117165920</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>76994237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>83204253</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>149043701</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>209018677</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>40289005</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>90723029</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>216189427</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64749835</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>180374236</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>70640828</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>213721473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>189866076</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>151934044</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>137481829</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>170047537</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>140774245</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>135733533</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>181807566</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>183088978</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>136120535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>118974224</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>105373704</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>152089206</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>104489216</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>219783104</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>185425662</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>110167079</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38433417</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>139739537</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36546897</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>182754175</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>150501300</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>113206276</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31193211</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>152075601</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>94254667</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>99300924</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>193041849</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>138532236</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>165920331</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>156782656</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>164158739</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>202475710</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>133922713</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>146594646</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>122434900</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52470070</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>175291601</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>109684843</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>198269207</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>165297859</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>161363949</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60241503</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>199469291</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>206760089</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>122783915</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>165593339</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>201272772</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>173844878</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>107447402</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>62909253</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>90399102</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109970244</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>213563548</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>176713893</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>122504138</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>108853385</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>197051750</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>106803481</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>145529173</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>148208837</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>168332726</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>183992757</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>146167140</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>141686626</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>174899775</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>204317070</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>214194065</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>146202146</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>161398537</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>169087174</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>216024237</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>199222215</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>194598503</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>192290456</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>101514405</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>192290509</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>164216923</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>146121673</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>206574441</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>192290529</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>213447411</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>192290530</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>155211125</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>173719931</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>218304503</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>216931442</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>217167276</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>218954922</v>
       </c>
     </row>
   </sheetData>

--- a/vk.xlsx
+++ b/vk.xlsx
@@ -1040,12 +1040,12 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>139739537</v>
+        <v>36546897</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>36546897</v>
+        <v>139739537</v>
       </c>
     </row>
     <row r="77">

--- a/vk.xlsx
+++ b/vk.xlsx
@@ -10,14 +10,14 @@
     <sheet name="groups" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -31,13 +31,6 @@
       <family val="2"/>
       <color rgb="FFCCCCCC"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -619,7 +612,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>98557384</v>
+        <v>92504944</v>
       </c>
       <c r="L1" t="inlineStr">
         <is>
@@ -634,7 +627,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92504944</v>
+        <v>135471942</v>
       </c>
       <c r="C2" s="1" t="n"/>
       <c r="L2" t="inlineStr">
@@ -648,7 +641,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>135471942</v>
+        <v>86195472</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -661,7 +654,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86195472</v>
+        <v>130693663</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -674,7 +667,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130693663</v>
+        <v>135644682</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -687,7 +680,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>135644682</v>
+        <v>98557384</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
